--- a/exports/06b_analysis/llama3.1:70b_V4/Sleep/FN_Event_Name_LLM_Events_example_evidence_Doc_Sleep.xlsx
+++ b/exports/06b_analysis/llama3.1:70b_V4/Sleep/FN_Event_Name_LLM_Events_example_evidence_Doc_Sleep.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,60 +456,70 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>DCT</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LLM_Events_example_evidence_Doc</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Event_Name_Sleep</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>comment</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>negation</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Event_Name_LLM_Events_example_evidence_Doc_Sleep</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Text_Quote_in_gt</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Text_Quote_LLM_Events_example_evidence_Doc_Sleep</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Attribute_LLM_Events_example_evidence_Doc_Sleep</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Event_Name_LLM_Events_example_evidence_Doc</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Attribute_LLM_Events_example_evidence_Doc</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Text_Quote_LLM_Events_example_evidence_Doc</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Event_Id_LLM_Events_example_evidence_Doc</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Order_LLM_Events_example_evidence_Doc</t>
         </is>
@@ -550,29 +560,29 @@
       <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(Timestamp('2162-06-17 05:21:00'), Timestamp('2162-06-17 05:55:00'))</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>{'text': 'ccu npn 2300-0700\ns: "i am sweating so much tonight."\no: please see carevue for vs and objective data\ncvs: hemodynamically labile with hr initially 90\'s nst, down to 70\'s nsr with temp. down. freq. pvcs, occ. couplets. k+ 5.0\nbp via left radial aline initially 80\'s-90\'s/50-60 with maps 66-72, initial co/ci 4.4/2.0 svr 891 with mv sat 61 at mn. diastolic blood pressure trending down to 70\'s-80\'s/50\'s. maintaining map 63-65 with narrow pulse pressure. ccu team notified. repeat co/ci 3.7/1.74 with mv sat down to 53. patient. with increased diaphoresis overnight, skin cool and clammy to touch at time of ci 1.74, therefore restarted iv milrinone with 5mcg/kg/min bolus over 10mins and drip at 0.375mcg/kg/min at 0415. repeat mv pnd.\nrij swan with pa 30-40\'s/21-25. cvp 17-20. unable to wedge.\nresp; sats 96-99% on 2l n/c. abg 151/31/7.46/23/0 lungs with bronchial breath sound right lower bases, dependent base rales. rare, diffuse i/e wheezes. strong cough, not productive this shift.\ngi:gu: limited by mouth\'s, abdomen soft with active bowel sounds, no stool this shift. foley to drainage with clear, amber urine. u/o minimal at 10-30cc/hour, total i/o neg. 275cc at mn. ccu team aware of decreasing u/o in setting of lower systolic pressure.\nrenal: bun/creat 10/0.8\nid: initial temp 99.8, correlated to oral temp. temp now down to 97 range after 650mg by mouth tylenol at 0100 and addition of iv vanco 1gm at 0100 in setting of cont\'d temp spikes with invasive lines.\nwbc 10.9\nneuro: patient. a/a/0x3, cooperative and appreciative of care. c/o increase diaphoresis with break in temp. slept at intervals. turning self slightly in bed. sister remained at bedside, sleeping on cot. very supportive.\na: failed milrinone wean with drop in systolic bp, ci, mv sat, urine output, requiring restart of iv milrinone to 0.375mcg/kg/min.\np: cont to monitor hemodynamics, assess patient\'s response to iv milrinone.\nfollow up with mv sats and am labs. hold captopril for now. discuss with team resite of lines with continued fever spikes. follow up with cultures pnd. comfort and emotional support to patient. and family\n', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "c/o increase diaphoresis with break in temp.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "slept at intervals.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "intervals"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Family",\n      "text_quote": "sister remained at bedside, sleeping on cot.",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "sister"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Excretion",\n      "text_quote": "foley to drainage with clear, amber urine.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "clear, amber"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Eating",\n      "text_quote": "limited by mouth\'s",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "limited",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Pain",\n      "text_quote": "strong cough, not productive this shift.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e7",\n      "event_type": "Excretion",\n      "text_quote": "u/o minimal at 10-30cc/hour, total i/o neg. 275cc at mn.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e8",\n      "event_type": "Pain",\n      "text_quote": "i am sweating so much tonight.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e9",\n      "event_type": "Eating",\n      "text_quote": "650mg by mouth tylenol at 0100",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "tylenol",\n          "amount": "650mg",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e10",\n      "event_type": "Excretion",\n      "text_quote": "foley to drainage with clear, amber urine.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "clear, amber"\n        }\n      }\n    },\n    {\n      "event_id": "e11",\n      "event_type": "Pain",\n      "text_quote": "failed milrinone wean with drop in systolic bp, ci, mv sat, urine output, requiring restart of iv milrinone to 0.375mcg/kg/min.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e12",\n      "event_type": "Excretion",\n      "text_quote": "u/o minimal at 10-30cc/hour, total i/o neg. 275cc at mn.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e13",\n      "event_type": "Pain",\n      "text_quote": "cont to monitor hemodynamics, assess patient\'s response to iv milrinone.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e14",\n      "event_type": "Excretion",\n      "text_quote": "foley to drainage with clear, amber urine.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "clear, amber"\n        }\n      }\n    },\n    {\n      "event_id": "e15",\n      "event_type": "Pain",\n      "text_quote": "follow up with mv sats and am labs.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e16",\n      "event_type": "Excretion",\n      "text_quote": "u/o minimal at 10-30cc/hour, total i/o neg. 275cc at mn.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e17",\n      "event_type": "Pain",\n      "text_quote": "hold captopril for now.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e18",\n      "event_type": "Excretion",\n      "text_quote": "foley to drainage with clear, amber urine.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "clear, amber"\n        }\n      }\n    },\n    {\n      "event_id": "e19",\n      "event_type": "Pain",\n      "text_quote": "discuss with team resite of lines with continued fever spikes.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e20",\n      "event_type": "Excretion",\n      "text_quote": "u/o minimal at 10-30cc/hour, total i/o neg. 275cc at mn.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e21",\n      "event_type": "Pain",\n      "text_quote": "follow up with cultures pnd.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e22",\n      "event_type": "Excretion",\n      "text_quote": "foley to drainage with clear, amber urine.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "clear, amber"\n        }\n      }\n    },\n    {\n      "event_id": "e23",\n      "event_type": "Pain",\n      "text_quote": "comfort measures and emotional support.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e24",\n      "event_type": "Excretion",\n      "text_quote": "u/o minimal at 10-30cc/hour, total i/o neg. 275cc at mn.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e25",\n      "event_type": "Pain",\n      "text_quote": "family support and counseling.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e26",\n      "event_type": "Excretion",\n      "text_quote": "foley to drainage with clear, amber urine.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "clear, amber"\n        }\n      }\n    },\n    {\n      "event_id": "e27",\n      "event_type": "Pain",\n      "text_quote": "spiritual support and counseling.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e28",\n      "event_type": "Excretion",\n      "text_quote": "u/o minimal at 10-30cc/hour, total i/o neg. 275cc at mn.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e29",\n      "event_type": "Pain",\n      "text_quote": "end-of-life care and support.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e30",\n      "event_type": "Excretion",\n      "text_quote": "foley to drainage with clear, amber urine.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "clear, amber"\n        }\n      }\n    },\n    {\n      "event_id": "e31",\n      "event_type": "Pain",\n      "text_quote": "palliative care and support.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e32",\n      "event_type": "Excretion",\n      "text_quote": "u/o minimal at 10-30cc/hour, total i/o neg. 275cc at mn.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e33",\n      "event_type": "Pain",\n      "text_quote": "hospice care and support.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e34",\n      "event_type": "Excretion",\n      "text_quote": "foley to drainage with clear, amber urine.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "clear, amber"\n        }\n      }\n    },\n    {\n      "event_id": "e35",\n      "event_type": "Pain",\n      "text_quote": "bereavement support and counseling.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e36",\n      "event_type": "Excretion",\n      "text_quote": "u/o minimal at 10-30cc/hour, total i/o neg. 275cc at mn.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e37",\n      "event_type": "Pain",\n      "text_quote": "follow-up care and support.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e38",\n      "event_type": "Excretion",\n      "text_quote": "foley to drainage with clear, amber urine.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "clear, amber"\n        }\n      }\n    },\n    {\n      "event_id": "e39",\n      "event_type": "Pain",\n      "text_quote": "ongoing care and support.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e40",\n      "event_type": "Excretion",\n      "text_quote": "u/o minimal at 10-30cc/hour, total i/o neg. 275cc at mn.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e41",\n      "event_type": "Pain",\n      "text_quote": "care coordination and support.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e42",\n      "event_type": "Excretion",\n      "text_quote": "foley to drainage with clear, amber urine.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "clear, amber"\n        }\n      }\n    },\n    {\n      "event_id": "e43",\n      "event_type": "Pain",\n      "text_quote": "case management and support.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e44",\n      "event_type": "Excretion",\n      "text_quote": "u/o minimal at 10-30cc/hour, total i/o neg. 275cc at mn.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e45",\n      "event_type": "Pain",\n      "text_quote": "discharge planning and support.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e46",\n      "event_type": "Excretion",\n      "text_quote": "foley to drainage with clear, amber urine.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "clear, amber"\n        }\n      }\n    },\n    {\n      "event_id": "e47",\n      "event_type": "Pain",\n      "text_quote": "post-discharge support and follow-up.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e48",\n      "event_type": "Excretion",\n      "text_quote": "u/o minimal at 10-30cc/hour, total i/o neg. 275cc at mn.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e49",\n      "event_type": "Pain",\n      "text_quote": "ongoing monitoring and support.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e50",\n      "event_type": "Excretion",\n      "text_quote": "foley to drainage with clear, amber urine.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "clear, amber"\n        }\n      }\n    },\n    {\n      "event_id": "e51",\n      "event_type": "Pain",\n      "text_quote": "adjustments to treatment plan as needed.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e52",\n      "event_type": "Excretion",\n      "text_quote": "u/o minimal at 10-30cc/hour, total i/o neg. 275cc at mn.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e53",\n      "event_type": "Pain",\n      "text_quote": "close monitoring of patient\'s condition.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e54",\n      "event_type": "Excretion",\n      "text_quote": "foley to drainage with clear, amber urine.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "clear, amber"\n        }\n      }\n    },\n    {\n      "event_id": "e55",\n      "event_type": "Pain",\n      "text_quote": "prompt reporting of any concerns or changes.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e56",\n      "event_type": "Excretion",\n      "text_quote": "u/o minimal at 10-30cc/hour, total i/o neg. 275cc at mn.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e57",\n      "event_type": "Pain",\n      "text_quote": "collaboration with other healthcare providers.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e58",\n      "event_type": "Excretion",\n      "text_quote": "foley to drainage with clear, amber urine.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "clear, amber"\n        }\n      }\n    },\n    {\n      "event_id": "e59",\n      "event_type": "Pain",\n      "text_quote": "patient education and support.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e60",\n      "event_type": "Excretion",\n      "text_quote": "u/o minimal at 10-30cc/hour, total i/o neg. 275cc at mn.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e61",\n      "event_type": "Pain",\n      "text_quote": "encouragement of patient\'s participation.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e62",\n      "event_type": "Excretion",\n      "text_quote": "foley to drainage with clear, amber urine.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "clear, amber"\n        }\n      }\n    },\n    {\n      "event_id": "e63",\n      "event_type": "Pain",\n      "text_quote": "respect for patient\'s autonomy and dignity.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e64",\n      "event_type": "Excretion",\n      "text_quote": "u/o minimal at 10-30cc/hour, total i/o neg. 275cc at mn.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e65",\n      "event_type": "Pain",\n      "text_quote": "provision of emotional support and comfort.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e66",\n      "event_type": "Excretion",\n      "text_quote": "foley to drainage with clear, amber urine.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "clear, amber"\n        }\n      }\n    },\n    {\n      "event_id": "e67",\n      "event_type": "Pain",\n      "text_quote": "maintenance of patient\'s physical comfort.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e68",\n      "event_type": "Excretion",\n      "text_quote": "u/o minimal at 10-30cc/hour, total i/o neg. 275cc at mn.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "minimal",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e69",\n      "event_type": "Pain",\n      "text_quote": "prevention of complic</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>slept at intervals</t>
         </is>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -600,6 +610,16 @@
         </is>
       </c>
       <c r="Q2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>['[]']</t>
         </is>
@@ -627,29 +647,29 @@
       <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
-        <v>1</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(Timestamp('2164-12-16 06:35:00'), Timestamp('2164-12-16 06:42:00'))</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>{'text': 'data: vss    sb/p&lt;160     neuro-patient alert and oriented x3.  very cooperative/conversant. neuro signs stable. vent drain @ 20cm^tragus\nwith icp 7-16 draining 30cc/12hrs of clear fliud. c/o headache x3 relieved with tylenol 650mg. slept well during the noc.\n', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "c/o headache x3 relieved with tylenol 650mg",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "moderate", \n          "location": "head", \n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "slept well during the noc",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "noc", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "good", \n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "", \n          "amount": "", \n          "method": ""\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "", \n          "frequency": "", \n          "quality": ""\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "", \n          "relation": ""\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Unknown",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Unknown": {}\n      }\n    },\n    {\n      "event_id": "e7",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e8",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e9",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e10",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e11",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e12",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e13",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e14",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e15",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e16",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e17",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e18",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e19",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e20",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e21",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e22",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e23",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e24",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e25",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e26",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e27",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e28",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e29",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e30",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e31",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e32",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e33",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e34",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e35",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e36",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e37",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e38",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e39",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e40",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e41",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e42",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e43",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e44",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e45",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e46",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e47",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e48",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e49",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e50",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e51",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e52",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e53",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e54",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e55",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e56",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e57",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e58",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e59",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e60",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e61",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e62",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e63",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e64",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e65",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e66",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e67",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e68",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e69",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e70",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e71",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e72",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e73",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e74",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e75",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e76",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e77",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e78",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e79",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e80",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e81",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e82",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e83",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e84",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e85",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e86",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e87",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e88",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e89",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e90",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e91",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e92",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e93",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e94",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e95",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e96",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e97",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e98",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e99",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e100",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e101",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e102",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e103",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e104",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e105",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e106",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e107",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e108",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown", \n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e109",\n      "ev</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>slept well during the noc</t>
         </is>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -677,6 +697,16 @@
         </is>
       </c>
       <c r="Q3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>['[]']</t>
         </is>
@@ -712,29 +742,29 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(Timestamp('2102-09-26 18:28:00'), Timestamp('2102-09-26 18:48:00'))</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>{'text': 'ccu nsg note: cardiomyopathy/ diarrhea\ns: "this is an awful day. i really feel terrible".\no:  for complete vs see ccu flow sheet.\ncv: hr is in the 70s a-v paced. bp has been stable in 90s-105/30-40s. captoril continues to be increased. he received 75mg at 3pm and co/ci at 5pm was 4.7/ 2.42/ 868. he will receive 100mg captopril at 10p. he was also started on digoxin .125mg today and coumadin 5mg. his k+ is stable at 4.4. his pap has ranged 50-60/20-30 with ra was [**6-16**]. he continues on heparin at 1100u/hr with theraputic ptt. as his c/o has improved so much he will not receieve [**hospital1 **]-ventricular pacer at this time and can thus be loaded on coumadin.\nrenal: creatine remains stable at 1.9. he was switched from iv to by mouth diuretics today with almost no response. he received zaroxylyn 2.5 at 11:30 and lasix 200mg by mouth at noon with minimal output. most of the afternoon he has put out only 5-30cc/hr. he does remain ~850cc neg for the day however.\ngi: patient has had multiple episodes of g- liquid brown stool today. secimen was sent for c-diff. he has eaten nothing since breakfast and then he had only can of boost.\nresp: patient continues to have bbr, but is sating 97-99% on ra. however when he sleeps he will occasionally drops sats to high 80s, but will [**doctor last name 419**] back up to high 90s when awakened.\nms/act: patient feels very down today. he was only up to chair briefly and needed to transfer to the commode twice. he felt too wiped out to get up again. he slept very little during the day and needed to awaken frequently to have stools.\na: diarrhea/ c/o stable off milrinone/increasing by mouth med.\np: check results of c-diff. assist patient with bed pan. keep careful i &amp; o. check cardiac output after 100mg captopril.\n', 'event': ['Pain'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "" \n      },\n      "actor" \n      ],\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "terrible"\n        }\n      }\n    }', 'attributes': [{'Pain': {}}], 'orders': [], 'text_quotes': [''], 'event_time': ['Unknown'], 'negation': ['Unknown'], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2102-09-26 18:28:00 and 2102-09-26 18:48:00):\n           ccu nsg note: cardiomyopathy/ diarrhea\ns: "this is an awful day. i really feel terrible".\no:  for complete vs see ccu flow sheet.\ncv: hr is in the 70s a-v paced. bp has been stable in 90s-105/30-40s. captoril continues to be increased. he received 75mg at 3pm and co/ci at 5pm was 4.7/ 2.42/ 868. he will receive 100mg captopril at 10p. he was also started on digoxin .125mg today and coumadin 5mg. his k+ is stable at 4.4. his pap has ranged 50-60/20-30 with ra was [**6-16**]. he continues on heparin at 1100u/hr with theraputic ptt. as his c/o has improved so much he will not receieve [**hospital1 **]-ventricular pacer at this time and can thus be loaded on coumadin.\nrenal: creatine remains stable at 1.9. he was switched from iv to by mouth diuretics today with almost no response. he received zaroxylyn 2.5 at 11:30 and lasix 200mg by mouth at noon with minimal output. most of the afternoon he has put out only 5-30cc/hr. he does remain ~850cc neg for the day however.\ngi: patient has had multiple episodes of g- liquid brown stool today. secimen was sent for c-diff. he has eaten nothing since breakfast and then he had only can of boost.\nresp: patient continues to have bbr, but is sating 97-99% on ra. however when he sleeps he will occasionally drops sats to high 80s, but will [**doctor last name 419**] back up to high 90s when awakened.\nms/act: patient feels very down today. he was only up to chair briefly and needed to transfer to the commode twice. he felt too wiped out to get up again. he slept very little during the day and needed to awaken frequently to have stools.\na: diarrhea/ c/o stable off milrinone/increasing by mouth med.\np: check results of c-diff. assist patient with bed pan. keep careful i &amp; o. check cardiac output after 100mg captopril.\n\n        ', 'case_attributes': [], 'actor': ['Unknown'], 'event_detection_time': 3.8587618828751147}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t xml:space="preserve">when he sleeps he will occasionally drops sats to high 80s|he slept very little </t>
         </is>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -743,25 +773,35 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>['Pain']</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>[{'Pain': {}}]</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>['e1=Pain|1:']</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -800,29 +840,29 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
-        <v>1</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(Timestamp('2186-03-06 04:00:00'), Timestamp('2186-03-06 04:19:00'))</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>{'text': 'resp: ls diminish bibasilar w crackles lll. on 6lnc when patient awake saturation &gt;94%. but when patient felt asleep and mouthbreathing-&gt;sat dropped to 89-90%. explain to patient about importance of maintaining sat&gt;93%, the need to add supplement oxygen therapy by placing nc in mouth/ft/simple mask--&gt;patient firmly refused and stated "i am going to stay awake to do db to keep the oxy sat up, i have my right..."rn perform aggresive cpt, reinforce patient to use is ^1l w appropriate breathing techneque..patient denies pain. teach patient about need to have adequate sleeping --&gt;notify dr. [**first name (stitle) **] [**name (stitle) 2431**] about status--&gt;see patient and explain about oxygen therapy needs. patient aggree to wear shovel mask set at 50% w 6lnc w sat maintain &gt;93%. gas consitent metab. alkalosis. patient denies sob/dyspnea. rr mid 20s.good cough/non-productive.\n\ncv: sr 80s-90s w rare pvc\'s and 3beats pvcs\'x1 w perfusion compromised replete lytes as needed. patient woke up ~02 - hyptensive diastolic blood pressure ^180s, diaphoretic, tachy 100s. patient denies cp. bs checked 183. titrated nitro drops to keep diastolic blood pressure 120s-140s and map&lt;90&gt;60. direct patient to take db and relax, ..status improved. lopressor by mouth was increased at hs and trandolapril by mouth ordered. peripheral 2+pitting/+pp/+csm. both epecardial wires to pacer which is off..unable to check threshold d/t tachycardic.\n\ngi: no difficulty swallow.. belly obese.\nendo: bs high--&gt;need ss readjusted-&gt;follow by [**last name (un) 296**]\ngu: patient voids without difficulty..creatinine 1.2\nwound: chest wound cdi. both groin wound ecchymotic/soft/non-tender\nlower back noted scatter rashy appearance petechias..patient c/o"mildly itchy at site"-&gt;notify team in am\npain: denies pain. gave tynelol for chest sore w effect\nsocial: no family call in. patient need a lot of support and teaching about poc/status.\nneuro: patient a+ox3. mentating well. no neuro deficit\n\na: poor oxygenation d/t non-compliance\np: need aggresive pulm toilet. monitor rhymth/bp ? more lopressor. ^diet,acitivty..to f2 today?\n\na:\n\n', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "but when patient felt asleep and mouthbreathing-&gt;sat dropped to 89-90%",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "patient denies pain.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "patient voids without difficulty..creatinine 1.2",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "no family call in.",\n      "actor": "family member",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Pain",\n      "text_quote": "gave tynelol for chest sore w effect",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e7",\n      "event_type": "Sleep",\n      "text_quote": "patient aggree to wear shovel mask set at 50% w 6lnc w sat maintain &gt;93%",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e8",\n      "event_type": "Pain",\n      "text_quote": "patient c/o mildly itchy at site",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e9",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e10",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e11",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e12",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e13",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e14",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e15",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e16",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e17",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e18",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e19",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e20",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e21",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e22",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e23",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e24",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e25",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e26",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e27",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e28",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e29",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e30",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e31",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e32",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e33",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e34",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e35",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e36",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e37",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e38",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e39",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e40",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e41",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e42",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e43",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e44",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e45",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e46",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e47",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e48",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e49",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e50",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e51",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e52",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e53",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e54",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e55",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e56",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e57",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e58",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e59",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e60",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e61",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e62",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e63",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e64",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e65",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e66",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e67",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e68",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e69",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e70",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e71",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e72",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e73",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e74",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e75",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e76",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e77",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e78",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e79",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e80",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e81",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e82",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e83",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e84",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e85",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e86",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e87",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e88",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e89",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e90",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e91",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e92",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e93",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e94",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e95",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e96",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e97",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e98",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e99",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e100",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e101",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e102",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attri</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>when patient felt asleep|patient woke up ~02</t>
         </is>
       </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -850,6 +890,16 @@
         </is>
       </c>
       <c r="Q5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>['[]']</t>
         </is>
@@ -883,25 +933,25 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(Timestamp('2186-03-06 17:52:00'), Timestamp('2186-03-06 17:59:00'))</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'text': 'neuro: [** 467**] and oriented. tylenol by mouth works well for mild incisional pain. amb in corridors x3 today with min assist.\n\nresp: 4 l nc. sats 95-98%. lungs with basillar crackles. lasix increased to 40 mg tid for more fluid removal. [** **] incentive spirometer 1500cc.\n\ncv: nsr. pacing wires d/c this am. diastolic blood pressure stable. lopressor increased today. dsd dry and intact. trace pedal edema. afebrile.\n\ngu; voids qs diuresing from lasix.\n\ngi: [** **] by mouth. on meds and insulin for blood sugar control\n\nskin: petechial rash noted on back and buttocks only. pa [**doctor last name **] notified. benadryl started and orderd unbleached linen. patient states he is very sensitive to laundry detergent\n.\nplan: [**hospital ward name 56**] 2 in am. continue to monitor diuresis, lytes, resp status.\n', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "tylenol by mouth works well for mild incisional pain",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "mild",\n                    "location": "incisional",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "voids qs diuresing from lasix",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "lasix",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "qs",\n                    "quality": "diuresing"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "[** **] by mouth",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e7",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e8",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e9",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e10",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e11",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e12",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e13",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e14",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e15",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e16",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e17",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e18",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e19",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e20",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e21",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e22",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e23",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e24",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e25",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e26",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e27",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e28",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e29",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e30",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e31",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e32",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e33",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e34",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e35",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e36",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e37",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e38",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e39",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e40",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e41",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e42",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e43",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e44",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e45",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e46",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e47",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e48",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e49",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e50",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e51",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e52",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e53",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e54",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e55",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e56",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e57",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e58",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e59",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e60",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e61",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e62",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e63",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e64",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": </t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -929,6 +979,16 @@
         </is>
       </c>
       <c r="Q6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>['[]']</t>
         </is>
@@ -966,29 +1026,29 @@
       <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" t="n">
-        <v>1</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(Timestamp('2186-03-07 03:24:00'), Timestamp('2186-03-07 03:55:00'))</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>{'text': 'neuro: patient a+o x3. mentation intact. no neuro deficit. medicated w 2tynelols at hs. slept well.\n\nresp: uneventful noc. ox sat&gt;97%/4lnc when awake.but when patient sleep, has episodes of apnea last ~10-15sec w ox sat dropped to 72%. as discussed w patient early at shift w spouse presence, explain to patient and spouse about [**name2 (ni) **]/oxygenation status and therapy--&gt;patient firmly refuse humidify mist ft/simple face mask/nasal prong in mouth when sleep d/t as stated" fear of getting wet and  uncomfortable."..patient requested for the shovel mask without humidifier for supplement oxygen as need to keep ox sat&gt;93%. patient refuse alternation use of both humidify ft and nonhumidify ft despite repeat teaching about both therapy and insist patient to alternate the humidify ft. but patient firmly want to use the non-humidify shovel mask at 50%  overnoc w improved oxygenation overnoc. no resp distress. rr mid 10s-20s. ls diminish bibasilar w crackles. patient has good cough, non-congested/non-productive. is self-use ^1200ml. aggressive cpt.\n\ncv: sr w rare pac\'s/pvc\'s. bp good 100s-120s/50s w map &gt;60-80. currently on by mouth lopressor/isosorbide mononitrate/trandolapril. treat lytes pro re nata. peripheral gen edema, +pp, skin w/d\n\ngi no difficulty swallowing.\nendo: ss [**first name8 (namepattern2) 20**] [**last name (un) 296**]..\ngu: patient voids adequate w lasix--got onto commot w just passing flatus, no bm.\nwound: chest/lt leg wound cdi. [**last name (un) **] groin areas patent/cdi. lower back w continue petechial rash-&gt;patient stated itchiness improved after benadryl. use non-bleach sheets on patient.\nact: patient oob to chair/commot w 1 assist-&gt;strong gait\npain: denies pain..just"soreness at incision site"-&gt;medicate w tynenlol w effect\nsocial: patient spouse/family has major concern about patient well-being involving the oxygenation sat dropped at noc and the sleeping pattern--&gt;rn talk to patient and family together--&gt;teach about the post operative recovery including the importances of maintain oxy sat &gt;93% by implementing appropriate oxygen therapy..teach patient and family about the use of humidify ft vs. the non-humidify ft...explain to patient and family about importance of walking/using is/appropriate dbc technque to improve lung status. explain to patient about sleep apnea and how patient saturation dropped will affect the heart/body..address all the presenting issues...-&gt;patient and family verbalized understanding. support given as need.\n\na: improved oxygenation. sleep apnea\np: pulm hygiene. address sleep apnea issue prior d\'c since oxygen saturation drop to 72%. ^diet and act. monitor rhymth. d\'c a line. to f2 today\n', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "slept well.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "good"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "patient voids adequate w lasix--got onto commot w just passing flatus, no bm.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "adequate"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Pain",\n            "text_quote": "denies pain..just\\"soreness at incision site\\"",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "mild",\n                    "location": "incision site"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Family",\n            "text_quote": "patient spouse/family has major concern about patient well-being involving the oxygenation sat dropped at noc and the sleeping pattern--&gt;rn talk to patient and family together--&gt;teach about the post operative recovery including the importances of maintain oxy sat &gt;93% by implementing appropriate oxygen therapy..",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "concern",\n                    "relation": "spouse/family"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Eating",\n            "text_quote": "no difficulty swallowing.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Sleep",\n            "text_quote": "when patient sleep, has episodes of apnea last ~10-15sec w ox sat dropped to 72%.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "poor"\n                }\n            }\n        },\n        {\n            "event_id": "e7",\n            "event_type": "Pain",\n            "text_quote": "medicate w tynenlol w effect",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "mild"\n                }\n            }\n        },\n        {\n            "event_id": "e8",\n            "event_type": "Family",\n            "text_quote": "rn talk to patient and family together--&gt;teach about the post operative recovery including the importances of maintain oxy sat &gt;93% by implementing appropriate oxygen therapy..",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "teaching",\n                    "relation": "spouse/family"\n                }\n            }\n        },\n        {\n            "event_id": "e9",\n            "event_type": "Sleep",\n            "text_quote": "patient firmly refuse humidify mist ft/simple face mask/nasal prong in mouth when sleep d/t as stated\\" fear of getting wet and  uncomfortable.\\"",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "poor"\n                }\n            }\n        },\n        {\n            "event_id": "e10",\n            "event_type": "Eating",\n            "text_quote": "^diet and act.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e11",\n            "event_type": "Excretion",\n            "text_quote": "^1200ml.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine"\n                }\n            }\n        },\n        {\n            "event_id": "e12",\n            "event_type": "Pain",\n            "text_quote": "itchiness improved after benadryl.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "mild"\n                }\n            }\n        },\n        {\n            "event_id": "e13",\n            "event_type": "Family",\n            "text_quote": "patient and family verbalized understanding.",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "verbalized understanding",\n                    "relation": "spouse/family"\n                }\n            }\n        },\n        {\n            "event_id": "e14",\n            "event_type": "Sleep",\n            "text_quote": "patient firmly want to use the non-humidify shovel mask at 50%  overnoc w improved oxygenation overnoc.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "good"\n                }\n            }\n        },\n        {\n            "event_id": "e15",\n            "event_type": "Eating",\n            "text_quote": "no difficulty swallowing.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e16",\n            "event_type": "Pain",\n            "text_quote": "medicate w tynenlol w effect",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "mild"\n                }\n            }\n        },\n        {\n            "event_id": "e17",\n            "event_type": "Family",\n            "text_quote": "support given as need.",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "support",\n                    "relation": "spouse/family"\n                }\n            }\n        },\n        {\n            "event_id": "e18",\n            "event_type": "Sleep",\n            "text_quote": "sleep apnea",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "poor"\n                }\n            }\n        },\n        {\n            "event_id": "e19",\n            "event_type": "Eating",\n            "text_quote": "^diet and act.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e20",\n            "event_type": "Excretion",\n            "text_quote": "^1200ml.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine"\n                }\n            }\n        },\n        {\n            "event_id": "e21",\n            "event_type": "Pain",\n            "text_quote": "itchiness improved after benadryl.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "mild"\n                }\n            }\n        },\n        {\n            "event_id": "e22",\n            "event_type": "Family",\n            "text_quote": "patient and family verbalized understanding.",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "verbalized understanding",\n                    "relation": "spouse/family"\n                }\n            }\n        },\n        {\n            "event_id": "e23",\n            "event_type": "Sleep",\n            "text_quote": "patient firmly want to use the non-humidify shovel mask at 50%  overnoc w improved oxygenation overnoc.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "good"\n                }\n            }\n        },\n        {\n            "event_id": "e24",\n            "event_type": "Eating",\n            "text_quote": "no difficulty swallowing.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e25",\n            "event_type": "Pain",\n            "text_quote": "medicate w tynenlol w effect",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "mild"\n                }\n            }\n        },\n        {\n            "event_id": "e26",\n            "event_type": "Family",\n            "text_quote": "support given as need.",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "support",\n                    "relation": "spouse/family"\n                }\n            }\n        },\n        {\n            "event_id": "e27",\n            "event_type": "Sleep",\n            "text_quote": "sleep apnea",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "poor"\n                }\n            }\n        },\n        {\n            "event_id": "e28",\n            "event_type": "Eating",\n            "text_quote": "^diet and act.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e29",\n            "event_type": "Excretion",\n            "text_quote": "^1200ml.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine"\n                }\n            }\n        },\n        {\n            "event_id": "e30",\n            "event_type": "Pain",\n            "text_quote": "itchiness improved after benadryl.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "mild"\n                }\n            }\n        },\n        {\n            "event_id": "e31",\n            "event_type": "Family",\n            "text_quote": "patient and family verbalized understanding.",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "verbalized understanding",\n                    "relation": "spouse/family"\n                }\n            }\n        },\n        {\n            "event_id": "e32",\n            "event_type": "Sleep",\n            "text_quote": "patient firmly want to use the non-humidify shovel mask at 50%  overnoc w improved oxygenation overnoc.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "good"\n                }\n            }\n        },\n        {\n            "event_id": "e33",\n            "event_type": "Eating",\n            "text_quote": "no difficulty swallowing.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e34",\n            "event_type": "Pain",\n            "text_quote": "medicate w tynenlol w effect",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "mild"\n                }\n            }\n        },\n        {\n            "event_id": "e35",\n            "event_type": "Family",\n            "text_quote": "support given as need.",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "support",\n                    "relation": "spouse/family"\n                }\n            }\n        },\n        {\n            "event_id": "e36",\n            "event_type": "Sleep",\n            "text_quote": "sleep apnea",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "poor"\n                }\n            }\n        },\n        {\n            "event_id": "e37",\n            "event_type": "Eating",\n            "text_quote": "^diet and act.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e38",\n            "event_type": "Excretion",\n            "text_quote": "^1200ml.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine"\n                }\n            }\n        },\n        {\n            "event_id": "e39",\n            "event_type": "Pain",\n            "text_quote": "itchiness improved after benadryl.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "mild"\n                }\n            }\n        },\n        {\n            "event_id": "e40",\n            "event_type": "Family",\n            "text_quote": "patient and family verbalized understanding.",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "verbalized understanding",\n                    "relation": "spouse/family"\n                }\n            }\n        },\n        {\n            "event_id": "e41",\n            "event_type": "Sleep",\n            "text_quote": "patient firmly want to use the non-humidify shovel mask at 50%  overnoc w improved oxygenation overnoc.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "good"\n                }\n            }\n        },\n        {\n            "event_id": "e42",\n            "event_type": "Eating",\n            "text_quote": "no difficulty swallowing.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e43",\n            "event_type": "Pain",\n            "text_quote": "medicate w tynenlol w effect",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "mild"\n                }\n            }\n        },\n        {\n            "event_id": "e44",\n            "event_type": "Family",\n            "text_quote": "support given as need.",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "support",\n                    "relation": "spouse/family"\n                }\n            }\n        },\n        {\n            "event_id": "e45",\n            "event_type": "Sleep",\n            "text_quote": "sleep apnea",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "poor"\n                }\n            }\n        },\n        {\n            "event_id": "e46",\n            "event_type": "Eating",\n            "text_quote": "^diet and act.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e47",\n            "event_type": "Excretion",\n            "text_quote": "^1200ml.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine"\n                }\n            }\n        },\n        {\n            "event_id": "e48",\n            "event_type": "Pain",\n            "text_quote": "itchiness improved after benadryl.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "mild"\n                }\n            }\n        },\n        {\n            "event_id": "e49",\n            "event_type": "Family",\n            "text_quote": "patient and family verbalized understanding.",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "verbalized understanding",\n                    "relation": "spouse/family"\n                }\n            }\n        },\n        {\n            "event_id": "e50",\n            "event_type": "Sleep",\n            "text_quote": "patient firmly want to use the non-humidify shovel mask at 50%  overnoc w improved oxygenation overnoc.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "good"\n                }\n            }\n        },\n        {\n            "event_id": "e51",\n            "event_type": "Eating",\n            "text_quote": "no difficulty swallowing.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e52",\n            "event_type": "Pain",\n            "text_quote": "medicate w tynenlol w effect",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "mild"\n                }\n            }\n        },\n        {\n            "event_id": "e53",\n            "event_type": "Family",\n            "text_quote": "support given as need.",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "support",\n                    "relation": "spouse/family"\n                }\n            }\n        },\n        {\n            "event_id": "e54",\n            "event_type": "Sleep",\n            "text_quote": "sleep apnea",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "poor"\n                }\n            }\n        },\n        {\n            "event_id": "e55",\n            "event_type": "Eating",\n            "text_quote": "^diet and act.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e56",\n            "event_type": "Excretion",\n            "text_quote": "^1200ml.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine"\n                }\n            }\n        },\n        {\n            "event_id": "e57",\n            "event_type": "Pain",\n            "text_quote": "itchiness improved after benadryl.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "mild"\n                }\n            }\n        },\n        {\n            "event_id": "e58",\n            "event_type": "Family",\n            "text_quote": "patient and family verbalized understanding.",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "verbalized understanding",\n                    "relation": "spouse/family"\n                }\n            }\n        },\n        {\n            "event_id": "e59",\n            "event_type": "Sleep",\n            "text_quote": "patient firmly want to use the non-humidify shovel mask at 50%  overnoc w improved oxygenation overnoc.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "good"\n                }\n            }\n        },\n        {\n            "event_id": "e60",\n            "event_type": "Eating",\n            "text_quote": "no difficulty swallowing.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e61",\n            "event_type": "Pain",\n            "text_quote": "medicate w tynenlol w effect",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "mild"\n                }\n            }\n        },\n        {\n            "event_id": "e62",\n            "event_type": "Family",\n            "text_quote": "support given as need.",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknow</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>slept well|patient sleep|when sleep|the sleeping pattern</t>
         </is>
       </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -1016,6 +1076,16 @@
         </is>
       </c>
       <c r="Q7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>['[]']</t>
         </is>
@@ -1050,29 +1120,29 @@
       <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="F8" t="n">
-        <v>1</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(Timestamp('2167-05-20 05:03:00'), Timestamp('2167-05-20 05:24:00'))</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>{'text': 'ccu npn 1900-0700\ns: " i can\'t sleep again "\no:  afeb.  hr 84-90 sr.  rare pvc noted.\nbp 95-123/.  natrecor .010m/k/min.  heparin 1150u/hr.\n\nu/o did not respond to by mouth lasix in eve.  therefore given 80mg lasix iv at 2330.  &gt;1l u/o responce and currently neg. 1liter in am.\n\nls crackles 1/4 up.  ra sat 93-95% when sleeping.\n\nmed. stool in eve, guiac neg.  oob to commode, one assist.\n\nneuro: given additional 5mg ambien and able to sleep fairly well.\n\na/p:  oob again today.   follow lytes post diuresis.\n', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "i can\'t sleep again",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "poor"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "med. stool in eve, guiac neg.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "eve",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "stool",\n                    "frequency": "1x",\n                    "quality": "guaiac negative"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Sleep",\n            "text_quote": "given additional 5mg ambien and able to sleep fairly well.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "fairly well"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Excretion",\n            "text_quote": "u/o did not respond to by mouth lasix in eve.  therefore given 80mg lasix iv at 2330.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "eve",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "&gt;1l"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e7",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e8",\n            "event_type": "Excretion",\n            "text_quote": "&gt;1l u/o responce and currently neg. 1liter in am.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "am",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "&gt;1l"\n                }\n            }\n        },\n        {\n            "event_id": "e9",\n            "event_type": "Sleep",\n            "text_quote": "ra sat 93-95% when sleeping.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e10",\n            "event_type": "Excretion",\n            "text_quote": "oob to commode, one assist.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e11",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e12",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e13",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e14",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e15",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e16",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e17",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e18",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e19",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e20",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e21",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e22",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e23",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e24",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e25",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e26",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e27",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e28",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e29",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e30",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e31",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e32",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e33",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e34",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e35",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e36",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e37",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e38",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e39",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e40",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e41",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e42",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e43",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e44",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e45",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e46",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e47",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e48",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e49",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e50",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e51",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e52",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e53",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e54",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e55",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e56",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e57",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e58",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e59",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e60",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e61",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e62",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e63",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e64",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e65",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e66",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e67",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e68",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e69",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e70",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e71",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e72",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e73",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e74",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e75",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e76",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e77",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e78",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e79",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e80",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e81",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e82",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e83",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e84",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e85",\n            "event_type":</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t xml:space="preserve"> i can't sleep again|93-95% when sleeping|able to sleep fairly well</t>
         </is>
       </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -1100,6 +1170,16 @@
         </is>
       </c>
       <c r="Q8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>['[]']</t>
         </is>
